--- a/testData/sheet1.xlsx
+++ b/testData/sheet1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="19">
   <si>
     <t xml:space="preserve">BookShelve Name </t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Slumppy Solid Wood Bookshelf In Melamine Finish</t>
+  </si>
+  <si>
+    <t>Armstrong Engineered Wood Bookshelf In Laminate Finish</t>
+  </si>
+  <si>
+    <t>₹8,259</t>
   </si>
 </sst>
 </file>
@@ -131,18 +137,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -152,7 +158,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">

--- a/testData/sheet1.xlsx
+++ b/testData/sheet1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="25">
   <si>
     <t xml:space="preserve">BookShelve Name </t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>₹8,259</t>
+  </si>
+  <si>
+    <t>Zag Solid Wood Bookshelf In Melamine Finish</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Rustic Engineered Wood Bookshelf In Asian Walnut Finish</t>
+  </si>
+  <si>
+    <t>₹6,445</t>
+  </si>
+  <si>
+    <t>Johar Solid Wood Sideboard In Blue Finish</t>
+  </si>
+  <si>
+    <t>₹14,970</t>
   </si>
 </sst>
 </file>
@@ -158,12 +176,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
